--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1114383.030813433</v>
+        <v>1109877.620244513</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30052932.10990575</v>
+        <v>30052932.10990574</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7358758.424792555</v>
+        <v>7358758.424792557</v>
       </c>
     </row>
     <row r="9">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>53.409510047936</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.36782720556179</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>95.08164981070941</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H13" t="n">
         <v>134.4903647118297</v>
       </c>
       <c r="I13" t="n">
-        <v>62.5318777034446</v>
+        <v>16.02070023909578</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>153.01156706812</v>
@@ -1590,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1612,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>72.48145669721048</v>
       </c>
       <c r="H14" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.36782720556179</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>255.6135341540542</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.1819169737739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H16" t="n">
         <v>134.4903647118297</v>
       </c>
       <c r="I16" t="n">
-        <v>72.15825564197092</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.778005649686236</v>
+        <v>3.395661435605521</v>
       </c>
       <c r="S16" t="n">
         <v>153.01156706812</v>
       </c>
       <c r="T16" t="n">
-        <v>153.4726983693842</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U16" t="n">
         <v>277.3343344374282</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>150.4173472777514</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.36782720556179</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0.7513548123049963</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>32.36643761991132</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.15825564197091</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.778005649686236</v>
+        <v>6.778005649686222</v>
       </c>
       <c r="S19" t="n">
-        <v>153.01156706812</v>
+        <v>143.4377479537607</v>
       </c>
       <c r="T19" t="n">
         <v>237.124837410167</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>59.61945285884443</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>58.36782720556179</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>359.9503085993368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.20310364983599</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>15.42625803332771</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.778005649686229</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>153.01156706812</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.5728724625521</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>71.63722623608325</v>
       </c>
       <c r="H23" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.36782720556179</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>255.6135341540542</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>8.648252383642189</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>15.42625803332771</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.01156706812</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>206.3209701612428</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>149.4344605022815</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>33.20310364983596</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.778005649686222</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S28" t="n">
         <v>153.01156706812</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>92.80961852899625</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3228448427254</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.36782720556179</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6135341540542</v>
+        <v>162.4526044217153</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>115.3755111408273</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>3.585326435594877</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.01156706812</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>105.2240573695579</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>398.3228448427254</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T32" t="n">
         <v>210.080265299677</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>384.5360130392058</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>353.6562364666964</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>8.648252383642189</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.778005649686222</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S34" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.124837410167</v>
+        <v>228.6415003787428</v>
       </c>
       <c r="U34" t="n">
         <v>277.3343344374282</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>372.7281831159714</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.36782720556179</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V35" t="n">
-        <v>351.0938474573358</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.585326435594877</v>
       </c>
       <c r="G37" t="n">
-        <v>58.3663902386431</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H37" t="n">
         <v>134.4903647118297</v>
       </c>
       <c r="I37" t="n">
-        <v>72.15825564197091</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.01156706812</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>125.3816574461499</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3228448427254</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>113.2180649539162</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.430342445080666</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3681,7 +3681,7 @@
         <v>134.4903647118297</v>
       </c>
       <c r="I40" t="n">
-        <v>72.15825564197091</v>
+        <v>3.652016311997306</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>380.9390385090546</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.36782720556178</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T41" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>353.6562364666977</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H43" t="n">
         <v>134.4903647118297</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.778005649686222</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S43" t="n">
         <v>153.01156706812</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>48.49160434962669</v>
       </c>
       <c r="X43" t="n">
-        <v>224.7164199051807</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,16 +3979,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.36782720556178</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T44" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>345.8359369896461</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.6180906838758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>114.3658558907149</v>
       </c>
       <c r="T46" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>81.16203654616066</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1649.122614572697</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="C11" t="n">
-        <v>1222.221884585997</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="D11" t="n">
-        <v>798.9292637709977</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="E11" t="n">
-        <v>744.9802637225775</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="F11" t="n">
         <v>319.8560819119778</v>
@@ -5041,19 +5041,19 @@
         <v>83.49041341423344</v>
       </c>
       <c r="J11" t="n">
-        <v>220.1314621299485</v>
+        <v>220.1314621299482</v>
       </c>
       <c r="K11" t="n">
-        <v>433.1659828319416</v>
+        <v>433.1659828319412</v>
       </c>
       <c r="L11" t="n">
-        <v>703.4506798655943</v>
+        <v>703.4506798655939</v>
       </c>
       <c r="M11" t="n">
         <v>1009.34076718589</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O11" t="n">
         <v>1612.988324273003</v>
@@ -5071,22 +5071,22 @@
         <v>2060.84261340495</v>
       </c>
       <c r="T11" t="n">
-        <v>2060.84261340495</v>
+        <v>1848.640325223458</v>
       </c>
       <c r="U11" t="n">
-        <v>2060.84261340495</v>
+        <v>1590.444836178959</v>
       </c>
       <c r="V11" t="n">
-        <v>2060.84261340495</v>
+        <v>1232.955421305208</v>
       </c>
       <c r="W11" t="n">
-        <v>2060.84261340495</v>
+        <v>1136.91335078934</v>
       </c>
       <c r="X11" t="n">
-        <v>1649.122614572697</v>
+        <v>725.1933519570874</v>
       </c>
       <c r="Y11" t="n">
-        <v>1649.122614572697</v>
+        <v>319.8560819119778</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>42.39600029245378</v>
       </c>
       <c r="I12" t="n">
-        <v>62.36450125466528</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J12" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969208</v>
       </c>
       <c r="K12" t="n">
-        <v>287.2584022575218</v>
+        <v>456.9063208001047</v>
       </c>
       <c r="L12" t="n">
-        <v>491.8663652808093</v>
+        <v>661.5142838233921</v>
       </c>
       <c r="M12" t="n">
         <v>903.4276170154208</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.270140593928</v>
+        <v>694.9690147746336</v>
       </c>
       <c r="C13" t="n">
-        <v>413.270140593928</v>
+        <v>694.9690147746336</v>
       </c>
       <c r="D13" t="n">
-        <v>413.270140593928</v>
+        <v>531.6522419014043</v>
       </c>
       <c r="E13" t="n">
-        <v>413.270140593928</v>
+        <v>531.6522419014043</v>
       </c>
       <c r="F13" t="n">
-        <v>241.4083663684884</v>
+        <v>359.7904676759647</v>
       </c>
       <c r="G13" t="n">
-        <v>241.4083663684884</v>
+        <v>194.4273790307623</v>
       </c>
       <c r="H13" t="n">
-        <v>105.559513124216</v>
+        <v>58.57852578648993</v>
       </c>
       <c r="I13" t="n">
         <v>42.39600029245378</v>
@@ -5202,49 +5202,49 @@
         <v>161.8270914180507</v>
       </c>
       <c r="K13" t="n">
-        <v>242.8581411002464</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L13" t="n">
-        <v>351.4096788060911</v>
+        <v>975.0811815112779</v>
       </c>
       <c r="M13" t="n">
-        <v>683.4364224979687</v>
+        <v>1090.063028963224</v>
       </c>
       <c r="N13" t="n">
-        <v>1194.99402941617</v>
+        <v>1356.376736611579</v>
       </c>
       <c r="O13" t="n">
-        <v>1674.253897017313</v>
+        <v>1835.636604212722</v>
       </c>
       <c r="P13" t="n">
-        <v>2070.812554180406</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q13" t="n">
         <v>2119.800014622689</v>
       </c>
       <c r="R13" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S13" t="n">
-        <v>1958.396405816824</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.876368028777</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="U13" t="n">
-        <v>1438.740676677839</v>
+        <v>1445.587147031058</v>
       </c>
       <c r="V13" t="n">
-        <v>1157.029209285868</v>
+        <v>1163.875679639086</v>
       </c>
       <c r="W13" t="n">
-        <v>882.1768054583808</v>
+        <v>1163.875679639086</v>
       </c>
       <c r="X13" t="n">
-        <v>639.6129089041859</v>
+        <v>921.3117830848915</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.270140593928</v>
+        <v>694.9690147746336</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.7568118986776</v>
+        <v>1390.927125528198</v>
       </c>
       <c r="C14" t="n">
-        <v>319.8560819119778</v>
+        <v>964.0263955414982</v>
       </c>
       <c r="D14" t="n">
-        <v>319.8560819119778</v>
+        <v>540.7337747264985</v>
       </c>
       <c r="E14" t="n">
-        <v>319.8560819119778</v>
+        <v>540.7337747264985</v>
       </c>
       <c r="F14" t="n">
-        <v>319.8560819119778</v>
+        <v>115.6095929158987</v>
       </c>
       <c r="G14" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H14" t="n">
         <v>42.39600029245378</v>
       </c>
       <c r="I14" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423379</v>
       </c>
       <c r="J14" t="n">
         <v>220.1314621299487</v>
       </c>
       <c r="K14" t="n">
-        <v>433.1659828319416</v>
+        <v>433.1659828319417</v>
       </c>
       <c r="L14" t="n">
-        <v>703.4506798655942</v>
+        <v>703.4506798655945</v>
       </c>
       <c r="M14" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O14" t="n">
         <v>1612.988324273003</v>
@@ -5305,25 +5305,25 @@
         <v>2119.800014622689</v>
       </c>
       <c r="S14" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T14" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U14" t="n">
-        <v>1861.60452557819</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="V14" t="n">
-        <v>1504.115110704439</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="W14" t="n">
-        <v>1504.115110704439</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="X14" t="n">
-        <v>1092.395111872187</v>
+        <v>1390.927125528198</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.7568118986776</v>
+        <v>1390.927125528198</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>62.36450125466527</v>
       </c>
       <c r="J15" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969208</v>
       </c>
       <c r="K15" t="n">
-        <v>562.3618210850104</v>
+        <v>456.9063208001046</v>
       </c>
       <c r="L15" t="n">
-        <v>766.969784108298</v>
+        <v>661.5142838233921</v>
       </c>
       <c r="M15" t="n">
-        <v>1008.883117300327</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N15" t="n">
-        <v>1259.540581385168</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O15" t="n">
-        <v>1485.232474392533</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P15" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q15" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R15" t="n">
         <v>1815.547718957572</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.3127494160384</v>
+        <v>917.8818220388256</v>
       </c>
       <c r="C16" t="n">
-        <v>417.3401862949544</v>
+        <v>917.8818220388256</v>
       </c>
       <c r="D16" t="n">
-        <v>417.3401862949544</v>
+        <v>754.5650491655963</v>
       </c>
       <c r="E16" t="n">
-        <v>251.1319804478079</v>
+        <v>588.3568433184498</v>
       </c>
       <c r="F16" t="n">
-        <v>251.1319804478079</v>
+        <v>416.4950690930103</v>
       </c>
       <c r="G16" t="n">
         <v>251.1319804478079</v>
@@ -5436,22 +5436,22 @@
         <v>42.39600029245378</v>
       </c>
       <c r="J16" t="n">
-        <v>83.90537476982988</v>
+        <v>83.90537476982989</v>
       </c>
       <c r="K16" t="n">
         <v>164.9364244520256</v>
       </c>
       <c r="L16" t="n">
-        <v>649.876855749035</v>
+        <v>649.8768557490351</v>
       </c>
       <c r="M16" t="n">
-        <v>764.8587032009815</v>
+        <v>1174.527359368151</v>
       </c>
       <c r="N16" t="n">
-        <v>1194.99402941617</v>
+        <v>1507.750233989478</v>
       </c>
       <c r="O16" t="n">
-        <v>1674.253897017314</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P16" t="n">
         <v>2070.812554180406</v>
@@ -5460,28 +5460,28 @@
         <v>2119.800014622689</v>
       </c>
       <c r="R16" t="n">
-        <v>2112.953544269471</v>
+        <v>2116.370053576623</v>
       </c>
       <c r="S16" t="n">
-        <v>1958.396405816824</v>
+        <v>1961.812915123977</v>
       </c>
       <c r="T16" t="n">
-        <v>1803.373478170981</v>
+        <v>1722.292877335929</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.237786820044</v>
+        <v>1442.157185984992</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.237786820044</v>
+        <v>1160.445718593021</v>
       </c>
       <c r="W16" t="n">
-        <v>1248.385382992557</v>
+        <v>1160.445718593021</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.821486438362</v>
+        <v>917.8818220388256</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.478718128104</v>
+        <v>917.8818220388256</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1723.408664923036</v>
+        <v>465.6886211074535</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.471950501065</v>
+        <v>465.6886211074535</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.179329686065</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="E17" t="n">
-        <v>722.2023898339227</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="F17" t="n">
-        <v>722.2023898339227</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G17" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H17" t="n">
         <v>42.39600029245378</v>
       </c>
       <c r="I17" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423379</v>
       </c>
       <c r="J17" t="n">
-        <v>220.1314621299488</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K17" t="n">
-        <v>433.1659828319418</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L17" t="n">
-        <v>703.4506798655945</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M17" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N17" t="n">
         <v>1320.93021977883</v>
@@ -5542,25 +5542,25 @@
         <v>2119.800014622689</v>
       </c>
       <c r="S17" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T17" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U17" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="V17" t="n">
-        <v>2119.800014622689</v>
+        <v>1703.353198531199</v>
       </c>
       <c r="W17" t="n">
-        <v>1723.408664923036</v>
+        <v>1702.594254276346</v>
       </c>
       <c r="X17" t="n">
-        <v>1723.408664923036</v>
+        <v>1290.874255444093</v>
       </c>
       <c r="Y17" t="n">
-        <v>1723.408664923036</v>
+        <v>885.5369853989836</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>42.39600029245378</v>
       </c>
       <c r="I18" t="n">
-        <v>62.36450125466527</v>
+        <v>62.36450125466528</v>
       </c>
       <c r="J18" t="n">
         <v>140.6890736543379</v>
       </c>
       <c r="K18" t="n">
-        <v>287.2584022575217</v>
+        <v>287.2584022575218</v>
       </c>
       <c r="L18" t="n">
-        <v>766.969784108298</v>
+        <v>491.8663652808093</v>
       </c>
       <c r="M18" t="n">
-        <v>1008.883117300327</v>
+        <v>733.779698472838</v>
       </c>
       <c r="N18" t="n">
-        <v>1259.540581385168</v>
+        <v>984.4371625576798</v>
       </c>
       <c r="O18" t="n">
-        <v>1485.232474392533</v>
+        <v>1210.129055565045</v>
       </c>
       <c r="P18" t="n">
-        <v>1663.228492615173</v>
+        <v>1388.125073787684</v>
       </c>
       <c r="Q18" t="n">
         <v>1774.102247579974</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.270140593928</v>
+        <v>459.1174645500591</v>
       </c>
       <c r="C19" t="n">
-        <v>241.297577472844</v>
+        <v>287.1449014289751</v>
       </c>
       <c r="D19" t="n">
-        <v>241.297577472844</v>
+        <v>287.1449014289751</v>
       </c>
       <c r="E19" t="n">
-        <v>75.08937162569754</v>
+        <v>287.1449014289751</v>
       </c>
       <c r="F19" t="n">
-        <v>42.39600029245378</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="G19" t="n">
-        <v>42.39600029245378</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="H19" t="n">
-        <v>42.39600029245378</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="I19" t="n">
         <v>42.39600029245378</v>
       </c>
       <c r="J19" t="n">
-        <v>83.90537476982988</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K19" t="n">
-        <v>308.5295399622787</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L19" t="n">
-        <v>417.0810776681233</v>
+        <v>598.692287920113</v>
       </c>
       <c r="M19" t="n">
-        <v>532.0629251200697</v>
+        <v>1123.342791539229</v>
       </c>
       <c r="N19" t="n">
-        <v>1043.620532038271</v>
+        <v>1634.90039845743</v>
       </c>
       <c r="O19" t="n">
-        <v>1522.880399639414</v>
+        <v>1835.636604212722</v>
       </c>
       <c r="P19" t="n">
         <v>1919.439056802506</v>
@@ -5700,25 +5700,25 @@
         <v>2112.953544269471</v>
       </c>
       <c r="S19" t="n">
-        <v>1958.396405816824</v>
+        <v>1968.066930174763</v>
       </c>
       <c r="T19" t="n">
-        <v>1718.876368028777</v>
+        <v>1728.546892386715</v>
       </c>
       <c r="U19" t="n">
-        <v>1438.740676677839</v>
+        <v>1448.411201035778</v>
       </c>
       <c r="V19" t="n">
-        <v>1157.029209285868</v>
+        <v>1166.699733643807</v>
       </c>
       <c r="W19" t="n">
-        <v>882.1768054583808</v>
+        <v>891.8473298163198</v>
       </c>
       <c r="X19" t="n">
-        <v>639.6129089041859</v>
+        <v>649.2834332621248</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.270140593928</v>
+        <v>649.2834332621248</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>469.2967302791537</v>
+        <v>1232.955421305208</v>
       </c>
       <c r="C20" t="n">
-        <v>42.39600029245378</v>
+        <v>806.0546913185085</v>
       </c>
       <c r="D20" t="n">
-        <v>42.39600029245378</v>
+        <v>745.8330217641202</v>
       </c>
       <c r="E20" t="n">
-        <v>42.39600029245378</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="F20" t="n">
-        <v>42.39600029245378</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="G20" t="n">
-        <v>42.39600029245378</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="H20" t="n">
         <v>42.39600029245378</v>
@@ -5761,7 +5761,7 @@
         <v>703.4506798655945</v>
       </c>
       <c r="M20" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N20" t="n">
         <v>1320.93021977883</v>
@@ -5782,22 +5782,22 @@
         <v>2060.84261340495</v>
       </c>
       <c r="T20" t="n">
-        <v>2060.84261340495</v>
+        <v>1848.640325223458</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.84261340495</v>
+        <v>1590.444836178959</v>
       </c>
       <c r="V20" t="n">
-        <v>2060.84261340495</v>
+        <v>1232.955421305208</v>
       </c>
       <c r="W20" t="n">
-        <v>1664.451263705297</v>
+        <v>1232.955421305208</v>
       </c>
       <c r="X20" t="n">
-        <v>1252.731264873044</v>
+        <v>1232.955421305208</v>
       </c>
       <c r="Y20" t="n">
-        <v>889.1450945706838</v>
+        <v>1232.955421305208</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.39600029245378</v>
       </c>
       <c r="I21" t="n">
-        <v>62.36450125466527</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J21" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969208</v>
       </c>
       <c r="K21" t="n">
-        <v>287.2584022575217</v>
+        <v>456.9063208001046</v>
       </c>
       <c r="L21" t="n">
-        <v>491.8663652808092</v>
+        <v>661.5142838233921</v>
       </c>
       <c r="M21" t="n">
-        <v>1008.883117300327</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N21" t="n">
-        <v>1259.540581385168</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O21" t="n">
-        <v>1485.232474392533</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R21" t="n">
         <v>1815.547718957572</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379.7316520587401</v>
+        <v>229.9506422350809</v>
       </c>
       <c r="C22" t="n">
-        <v>207.7590889376561</v>
+        <v>57.97807911399693</v>
       </c>
       <c r="D22" t="n">
-        <v>207.7590889376561</v>
+        <v>57.97807911399693</v>
       </c>
       <c r="E22" t="n">
-        <v>207.7590889376561</v>
+        <v>57.97807911399693</v>
       </c>
       <c r="F22" t="n">
-        <v>207.7590889376561</v>
+        <v>57.97807911399693</v>
       </c>
       <c r="G22" t="n">
-        <v>42.39600029245378</v>
+        <v>57.97807911399693</v>
       </c>
       <c r="H22" t="n">
-        <v>42.39600029245378</v>
+        <v>57.97807911399693</v>
       </c>
       <c r="I22" t="n">
         <v>42.39600029245378</v>
@@ -5913,49 +5913,49 @@
         <v>83.90537476982989</v>
       </c>
       <c r="K22" t="n">
-        <v>164.9364244520256</v>
+        <v>412.2190335660476</v>
       </c>
       <c r="L22" t="n">
-        <v>649.8768557490351</v>
+        <v>897.1594648630571</v>
       </c>
       <c r="M22" t="n">
-        <v>1174.527359368151</v>
+        <v>1012.141312315004</v>
       </c>
       <c r="N22" t="n">
-        <v>1421.322856341475</v>
+        <v>1125.665996391325</v>
       </c>
       <c r="O22" t="n">
-        <v>1522.880399639414</v>
+        <v>1604.925863992468</v>
       </c>
       <c r="P22" t="n">
-        <v>1919.439056802506</v>
+        <v>2001.48452115556</v>
       </c>
       <c r="Q22" t="n">
         <v>2119.800014622689</v>
       </c>
       <c r="R22" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S22" t="n">
-        <v>1958.396405816824</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T22" t="n">
-        <v>1718.876368028777</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="U22" t="n">
-        <v>1438.740676677839</v>
+        <v>1445.587147031058</v>
       </c>
       <c r="V22" t="n">
-        <v>1157.029209285868</v>
+        <v>1163.875679639086</v>
       </c>
       <c r="W22" t="n">
-        <v>882.1768054583808</v>
+        <v>889.0232758115994</v>
       </c>
       <c r="X22" t="n">
-        <v>639.6129089041859</v>
+        <v>646.4593792574045</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.270140593928</v>
+        <v>420.1166109471466</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>744.9802637225775</v>
+        <v>1390.927125528198</v>
       </c>
       <c r="C23" t="n">
-        <v>744.9802637225775</v>
+        <v>964.0263955414982</v>
       </c>
       <c r="D23" t="n">
-        <v>744.9802637225775</v>
+        <v>540.7337747264985</v>
       </c>
       <c r="E23" t="n">
-        <v>744.9802637225775</v>
+        <v>114.7568348743561</v>
       </c>
       <c r="F23" t="n">
-        <v>319.8560819119778</v>
+        <v>114.7568348743561</v>
       </c>
       <c r="G23" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H23" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I23" t="n">
         <v>83.4904134142339</v>
       </c>
       <c r="J23" t="n">
-        <v>220.1314621299489</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K23" t="n">
-        <v>433.1659828319418</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L23" t="n">
-        <v>703.4506798655947</v>
+        <v>703.4506798655942</v>
       </c>
       <c r="M23" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N23" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O23" t="n">
         <v>1612.988324273003</v>
       </c>
       <c r="P23" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q23" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R23" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S23" t="n">
-        <v>2060.842613404951</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T23" t="n">
-        <v>2060.842613404951</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U23" t="n">
-        <v>1802.647124360452</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="V23" t="n">
-        <v>1445.157709486701</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="W23" t="n">
-        <v>1445.157709486701</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="X23" t="n">
-        <v>1033.437710654448</v>
+        <v>1390.927125528198</v>
       </c>
       <c r="Y23" t="n">
-        <v>1033.437710654448</v>
+        <v>1390.927125528198</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G24" t="n">
-        <v>85.47467570705003</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H24" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I24" t="n">
-        <v>62.36450125466529</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J24" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969208</v>
       </c>
       <c r="K24" t="n">
-        <v>287.2584022575218</v>
+        <v>456.9063208001047</v>
       </c>
       <c r="L24" t="n">
-        <v>491.8663652808093</v>
+        <v>661.5142838233921</v>
       </c>
       <c r="M24" t="n">
-        <v>733.779698472838</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N24" t="n">
-        <v>984.4371625576798</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O24" t="n">
-        <v>1210.129055565045</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P24" t="n">
-        <v>1388.125073787684</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R24" t="n">
         <v>1815.547718957572</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>223.1041718818632</v>
+        <v>229.9506422350809</v>
       </c>
       <c r="C25" t="n">
-        <v>51.13160876077924</v>
+        <v>57.97807911399693</v>
       </c>
       <c r="D25" t="n">
-        <v>42.3960002924538</v>
+        <v>57.97807911399693</v>
       </c>
       <c r="E25" t="n">
-        <v>42.3960002924538</v>
+        <v>57.97807911399693</v>
       </c>
       <c r="F25" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G25" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H25" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I25" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J25" t="n">
-        <v>83.9053747698299</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K25" t="n">
-        <v>412.2190335660476</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L25" t="n">
-        <v>520.7705712718922</v>
+        <v>975.0811815112779</v>
       </c>
       <c r="M25" t="n">
-        <v>635.7524187238387</v>
+        <v>1090.063028963224</v>
       </c>
       <c r="N25" t="n">
-        <v>1147.31002564204</v>
+        <v>1203.587713039546</v>
       </c>
       <c r="O25" t="n">
-        <v>1522.880399639415</v>
+        <v>1682.847580640689</v>
       </c>
       <c r="P25" t="n">
-        <v>1919.439056802507</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q25" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R25" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S25" t="n">
-        <v>1958.396405816825</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T25" t="n">
-        <v>1718.876368028778</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="U25" t="n">
-        <v>1438.74067667784</v>
+        <v>1445.587147031058</v>
       </c>
       <c r="V25" t="n">
-        <v>1157.029209285869</v>
+        <v>1163.875679639086</v>
       </c>
       <c r="W25" t="n">
-        <v>882.1768054583818</v>
+        <v>889.0232758115994</v>
       </c>
       <c r="X25" t="n">
-        <v>639.6129089041868</v>
+        <v>646.4593792574045</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.2701405939289</v>
+        <v>420.1166109471466</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>894.4209120897535</v>
+        <v>465.6886211074535</v>
       </c>
       <c r="C26" t="n">
-        <v>467.5201821030536</v>
+        <v>465.6886211074535</v>
       </c>
       <c r="D26" t="n">
-        <v>467.5201821030536</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="E26" t="n">
-        <v>467.5201821030536</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="F26" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G26" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H26" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I26" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423344</v>
       </c>
       <c r="J26" t="n">
-        <v>220.1314621299491</v>
+        <v>220.1314621299482</v>
       </c>
       <c r="K26" t="n">
-        <v>433.1659828319422</v>
+        <v>433.1659828319412</v>
       </c>
       <c r="L26" t="n">
-        <v>703.450679865595</v>
+        <v>703.4506798655939</v>
       </c>
       <c r="M26" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N26" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O26" t="n">
         <v>1612.988324273003</v>
       </c>
       <c r="P26" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q26" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R26" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S26" t="n">
-        <v>2119.80001462269</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T26" t="n">
-        <v>2119.80001462269</v>
+        <v>1848.640325223458</v>
       </c>
       <c r="U26" t="n">
-        <v>1861.604525578191</v>
+        <v>1848.640325223458</v>
       </c>
       <c r="V26" t="n">
-        <v>1861.604525578191</v>
+        <v>1491.150910349708</v>
       </c>
       <c r="W26" t="n">
-        <v>1465.213175878538</v>
+        <v>1491.150910349708</v>
       </c>
       <c r="X26" t="n">
-        <v>1314.269276381284</v>
+        <v>1079.430911517455</v>
       </c>
       <c r="Y26" t="n">
-        <v>1314.269276381284</v>
+        <v>674.0936414723452</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G27" t="n">
-        <v>85.47467570705003</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H27" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I27" t="n">
-        <v>62.36450125466529</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J27" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969208</v>
       </c>
       <c r="K27" t="n">
-        <v>287.2584022575218</v>
+        <v>456.9063208001047</v>
       </c>
       <c r="L27" t="n">
-        <v>491.8663652808093</v>
+        <v>661.5142838233921</v>
       </c>
       <c r="M27" t="n">
-        <v>733.779698472838</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N27" t="n">
-        <v>984.4371625576798</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O27" t="n">
-        <v>1210.129055565045</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P27" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R27" t="n">
         <v>1815.547718957572</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.9209790128295</v>
+        <v>413.270140593928</v>
       </c>
       <c r="C28" t="n">
-        <v>371.9209790128295</v>
+        <v>241.297577472844</v>
       </c>
       <c r="D28" t="n">
-        <v>208.6042061396003</v>
+        <v>241.297577472844</v>
       </c>
       <c r="E28" t="n">
-        <v>42.3960002924538</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="F28" t="n">
-        <v>42.3960002924538</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="G28" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H28" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I28" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J28" t="n">
-        <v>161.8270914180508</v>
+        <v>131.8994693982598</v>
       </c>
       <c r="K28" t="n">
-        <v>427.9367054762128</v>
+        <v>212.9305190804554</v>
       </c>
       <c r="L28" t="n">
-        <v>536.4882431820573</v>
+        <v>697.870950377465</v>
       </c>
       <c r="M28" t="n">
-        <v>1061.138746801173</v>
+        <v>1222.52145399658</v>
       </c>
       <c r="N28" t="n">
-        <v>1572.696353719374</v>
+        <v>1734.079060914782</v>
       </c>
       <c r="O28" t="n">
-        <v>1674.253897017314</v>
+        <v>1835.636604212722</v>
       </c>
       <c r="P28" t="n">
-        <v>2070.812554180407</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q28" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R28" t="n">
         <v>2112.953544269471</v>
       </c>
       <c r="S28" t="n">
-        <v>1958.396405816825</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="T28" t="n">
-        <v>1718.876368028778</v>
+        <v>1718.876368028777</v>
       </c>
       <c r="U28" t="n">
-        <v>1438.74067667784</v>
+        <v>1438.740676677839</v>
       </c>
       <c r="V28" t="n">
-        <v>1157.029209285869</v>
+        <v>1157.029209285868</v>
       </c>
       <c r="W28" t="n">
-        <v>882.1768054583818</v>
+        <v>882.1768054583808</v>
       </c>
       <c r="X28" t="n">
-        <v>788.4297160351532</v>
+        <v>639.6129089041859</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.0869477248953</v>
+        <v>413.270140593928</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>869.8664900249985</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="C29" t="n">
-        <v>869.8664900249985</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="D29" t="n">
-        <v>869.8664900249985</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="E29" t="n">
-        <v>869.8664900249985</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="F29" t="n">
-        <v>444.7423082143987</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="G29" t="n">
-        <v>42.3960002924538</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="H29" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I29" t="n">
-        <v>83.49041341423383</v>
+        <v>83.4904134142338</v>
       </c>
       <c r="J29" t="n">
-        <v>220.1314621299488</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K29" t="n">
-        <v>433.1659828319418</v>
+        <v>433.1659828319417</v>
       </c>
       <c r="L29" t="n">
-        <v>703.4506798655946</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M29" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N29" t="n">
-        <v>1320.930219778831</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O29" t="n">
-        <v>1612.988324273004</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P29" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q29" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R29" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S29" t="n">
-        <v>2060.842613404951</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T29" t="n">
-        <v>2060.842613404951</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U29" t="n">
-        <v>1802.647124360452</v>
+        <v>1896.749073585036</v>
       </c>
       <c r="V29" t="n">
-        <v>1802.647124360452</v>
+        <v>1539.259658711285</v>
       </c>
       <c r="W29" t="n">
-        <v>1406.255774660799</v>
+        <v>1539.259658711285</v>
       </c>
       <c r="X29" t="n">
-        <v>1289.714854316529</v>
+        <v>1127.539659879032</v>
       </c>
       <c r="Y29" t="n">
-        <v>1289.714854316529</v>
+        <v>722.2023898339227</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G30" t="n">
-        <v>85.47467570705003</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H30" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I30" t="n">
-        <v>62.36450125466529</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J30" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969208</v>
       </c>
       <c r="K30" t="n">
-        <v>287.2584022575218</v>
+        <v>456.9063208001047</v>
       </c>
       <c r="L30" t="n">
-        <v>491.8663652808093</v>
+        <v>661.5142838233921</v>
       </c>
       <c r="M30" t="n">
-        <v>1008.883117300327</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N30" t="n">
-        <v>1259.540581385168</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O30" t="n">
-        <v>1485.232474392533</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P30" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q30" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R30" t="n">
         <v>1815.547718957572</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>549.5471105122067</v>
+        <v>420.1166109471466</v>
       </c>
       <c r="C31" t="n">
-        <v>377.5745473911227</v>
+        <v>420.1166109471466</v>
       </c>
       <c r="D31" t="n">
-        <v>214.2577745178934</v>
+        <v>420.1166109471466</v>
       </c>
       <c r="E31" t="n">
-        <v>214.2577745178934</v>
+        <v>420.1166109471466</v>
       </c>
       <c r="F31" t="n">
-        <v>42.3960002924538</v>
+        <v>416.4950690930103</v>
       </c>
       <c r="G31" t="n">
-        <v>42.3960002924538</v>
+        <v>251.1319804478079</v>
       </c>
       <c r="H31" t="n">
-        <v>42.3960002924538</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="I31" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J31" t="n">
-        <v>83.9053747698299</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K31" t="n">
-        <v>309.8429706743177</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L31" t="n">
-        <v>794.7834019713273</v>
+        <v>649.876855749035</v>
       </c>
       <c r="M31" t="n">
-        <v>909.7652494232738</v>
+        <v>1174.52735936815</v>
       </c>
       <c r="N31" t="n">
-        <v>1421.322856341475</v>
+        <v>1686.084966286352</v>
       </c>
       <c r="O31" t="n">
-        <v>1522.880399639415</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P31" t="n">
-        <v>1919.439056802507</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q31" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R31" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S31" t="n">
-        <v>1958.396405816825</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T31" t="n">
-        <v>1718.876368028778</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="U31" t="n">
-        <v>1438.74067667784</v>
+        <v>1445.587147031058</v>
       </c>
       <c r="V31" t="n">
-        <v>1157.029209285869</v>
+        <v>1163.875679639086</v>
       </c>
       <c r="W31" t="n">
-        <v>882.1768054583818</v>
+        <v>889.0232758115994</v>
       </c>
       <c r="X31" t="n">
-        <v>775.8898788224647</v>
+        <v>646.4593792574045</v>
       </c>
       <c r="Y31" t="n">
-        <v>549.5471105122067</v>
+        <v>420.1166109471466</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>444.7423082143987</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="C32" t="n">
-        <v>444.7423082143987</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="D32" t="n">
-        <v>444.7423082143987</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="E32" t="n">
-        <v>444.7423082143987</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="F32" t="n">
-        <v>444.7423082143987</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="G32" t="n">
-        <v>42.3960002924538</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="H32" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="I32" t="n">
-        <v>83.49041341423383</v>
+        <v>83.49041341423379</v>
       </c>
       <c r="J32" t="n">
-        <v>220.1314621299488</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K32" t="n">
         <v>433.1659828319418</v>
       </c>
       <c r="L32" t="n">
-        <v>703.4506798655946</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M32" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N32" t="n">
-        <v>1320.930219778831</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O32" t="n">
-        <v>1612.988324273004</v>
+        <v>1612.988324273002</v>
       </c>
       <c r="P32" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q32" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R32" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S32" t="n">
-        <v>2119.80001462269</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T32" t="n">
-        <v>1907.597726441198</v>
+        <v>1848.640325223458</v>
       </c>
       <c r="U32" t="n">
-        <v>1649.402237396699</v>
+        <v>1848.640325223458</v>
       </c>
       <c r="V32" t="n">
-        <v>1649.402237396699</v>
+        <v>1491.150910349707</v>
       </c>
       <c r="W32" t="n">
-        <v>1253.010887697046</v>
+        <v>1491.150910349707</v>
       </c>
       <c r="X32" t="n">
-        <v>864.5906725059288</v>
+        <v>1079.430911517454</v>
       </c>
       <c r="Y32" t="n">
-        <v>864.5906725059288</v>
+        <v>722.2023898339227</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G33" t="n">
-        <v>85.47467570705003</v>
+        <v>85.47467570705</v>
       </c>
       <c r="H33" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="I33" t="n">
-        <v>62.36450125466529</v>
+        <v>62.36450125466526</v>
       </c>
       <c r="J33" t="n">
-        <v>140.6890736543379</v>
+        <v>415.7924924818267</v>
       </c>
       <c r="K33" t="n">
-        <v>287.2584022575218</v>
+        <v>562.3618210850104</v>
       </c>
       <c r="L33" t="n">
-        <v>492.9767445740238</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M33" t="n">
-        <v>734.8900777660525</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N33" t="n">
         <v>1259.540581385168</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>223.1041718818632</v>
+        <v>386.2303376389773</v>
       </c>
       <c r="C34" t="n">
-        <v>51.13160876077924</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="D34" t="n">
-        <v>42.3960002924538</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="E34" t="n">
-        <v>42.3960002924538</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="F34" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="G34" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="H34" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="I34" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="J34" t="n">
-        <v>83.9053747698299</v>
+        <v>83.90537476982986</v>
       </c>
       <c r="K34" t="n">
-        <v>308.5295399622794</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L34" t="n">
-        <v>417.081077668124</v>
+        <v>649.876855749035</v>
       </c>
       <c r="M34" t="n">
-        <v>532.0629251200704</v>
+        <v>1174.52735936815</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.620532038272</v>
+        <v>1686.084966286352</v>
       </c>
       <c r="O34" t="n">
-        <v>1522.880399639415</v>
+        <v>1787.642509584292</v>
       </c>
       <c r="P34" t="n">
-        <v>1919.439056802507</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q34" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R34" t="n">
-        <v>2112.953544269471</v>
+        <v>2112.95354426947</v>
       </c>
       <c r="S34" t="n">
-        <v>1958.396405816825</v>
+        <v>2112.95354426947</v>
       </c>
       <c r="T34" t="n">
-        <v>1718.876368028778</v>
+        <v>1882.002533785892</v>
       </c>
       <c r="U34" t="n">
-        <v>1438.74067667784</v>
+        <v>1601.866842434954</v>
       </c>
       <c r="V34" t="n">
-        <v>1157.029209285869</v>
+        <v>1320.155375042983</v>
       </c>
       <c r="W34" t="n">
-        <v>882.1768054583818</v>
+        <v>1045.302971215496</v>
       </c>
       <c r="X34" t="n">
-        <v>639.6129089041868</v>
+        <v>802.7390746613009</v>
       </c>
       <c r="Y34" t="n">
-        <v>413.2701405939289</v>
+        <v>576.396306351043</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>469.2967302791537</v>
+        <v>821.2354224729556</v>
       </c>
       <c r="C35" t="n">
-        <v>42.3960002924538</v>
+        <v>821.2354224729556</v>
       </c>
       <c r="D35" t="n">
-        <v>42.3960002924538</v>
+        <v>821.2354224729556</v>
       </c>
       <c r="E35" t="n">
-        <v>42.3960002924538</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="F35" t="n">
-        <v>42.3960002924538</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="G35" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H35" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I35" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423344</v>
       </c>
       <c r="J35" t="n">
-        <v>220.1314621299491</v>
+        <v>220.1314621299482</v>
       </c>
       <c r="K35" t="n">
-        <v>433.1659828319422</v>
+        <v>433.1659828319412</v>
       </c>
       <c r="L35" t="n">
-        <v>703.450679865595</v>
+        <v>703.4506798655939</v>
       </c>
       <c r="M35" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N35" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O35" t="n">
         <v>1612.988324273003</v>
       </c>
       <c r="P35" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q35" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R35" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S35" t="n">
-        <v>2060.842613404951</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T35" t="n">
-        <v>2060.842613404951</v>
+        <v>1848.640325223458</v>
       </c>
       <c r="U35" t="n">
-        <v>2060.842613404951</v>
+        <v>1590.444836178959</v>
       </c>
       <c r="V35" t="n">
-        <v>1706.202363448046</v>
+        <v>1232.955421305208</v>
       </c>
       <c r="W35" t="n">
-        <v>1706.202363448046</v>
+        <v>1232.955421305208</v>
       </c>
       <c r="X35" t="n">
-        <v>1294.482364615793</v>
+        <v>821.2354224729556</v>
       </c>
       <c r="Y35" t="n">
-        <v>889.1450945706838</v>
+        <v>821.2354224729556</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G36" t="n">
-        <v>85.47467570705003</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H36" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I36" t="n">
-        <v>62.36450125466529</v>
+        <v>62.36450125466527</v>
       </c>
       <c r="J36" t="n">
         <v>140.6890736543379</v>
       </c>
       <c r="K36" t="n">
-        <v>287.2584022575218</v>
+        <v>562.3618210850104</v>
       </c>
       <c r="L36" t="n">
-        <v>491.8663652808093</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M36" t="n">
-        <v>733.779698472838</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N36" t="n">
-        <v>984.4371625576798</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O36" t="n">
-        <v>1210.129055565045</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P36" t="n">
-        <v>1388.125073787684</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q36" t="n">
         <v>1774.102247579974</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>639.6129089041868</v>
+        <v>420.1166109471466</v>
       </c>
       <c r="C37" t="n">
-        <v>639.6129089041868</v>
+        <v>420.1166109471466</v>
       </c>
       <c r="D37" t="n">
-        <v>476.2961360309575</v>
+        <v>420.1166109471466</v>
       </c>
       <c r="E37" t="n">
-        <v>310.0879301838111</v>
+        <v>420.1166109471466</v>
       </c>
       <c r="F37" t="n">
-        <v>310.0879301838111</v>
+        <v>416.4950690930103</v>
       </c>
       <c r="G37" t="n">
         <v>251.1319804478079</v>
@@ -7092,55 +7092,55 @@
         <v>115.2831272035355</v>
       </c>
       <c r="I37" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J37" t="n">
-        <v>161.8270914180508</v>
+        <v>131.8994693982598</v>
       </c>
       <c r="K37" t="n">
-        <v>242.8581411002465</v>
+        <v>212.9305190804554</v>
       </c>
       <c r="L37" t="n">
-        <v>568.4545750460231</v>
+        <v>697.870950377465</v>
       </c>
       <c r="M37" t="n">
-        <v>683.4364224979696</v>
+        <v>1222.52145399658</v>
       </c>
       <c r="N37" t="n">
-        <v>1194.994029416171</v>
+        <v>1734.079060914782</v>
       </c>
       <c r="O37" t="n">
-        <v>1674.253897017314</v>
+        <v>1835.636604212722</v>
       </c>
       <c r="P37" t="n">
-        <v>2070.812554180407</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q37" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R37" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S37" t="n">
-        <v>1958.396405816825</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T37" t="n">
-        <v>1718.876368028778</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="U37" t="n">
-        <v>1438.74067667784</v>
+        <v>1445.587147031058</v>
       </c>
       <c r="V37" t="n">
-        <v>1157.029209285869</v>
+        <v>1163.875679639086</v>
       </c>
       <c r="W37" t="n">
-        <v>882.1768054583818</v>
+        <v>889.0232758115994</v>
       </c>
       <c r="X37" t="n">
-        <v>639.6129089041868</v>
+        <v>646.4593792574045</v>
       </c>
       <c r="Y37" t="n">
-        <v>639.6129089041868</v>
+        <v>420.1166109471466</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1699.95165033116</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.303511496665</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.303511496665</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.326571644523</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="F38" t="n">
         <v>722.2023898339227</v>
@@ -7168,58 +7168,58 @@
         <v>319.8560819119778</v>
       </c>
       <c r="H38" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I38" t="n">
         <v>83.4904134142339</v>
       </c>
       <c r="J38" t="n">
-        <v>220.1314621299489</v>
+        <v>220.1314621299484</v>
       </c>
       <c r="K38" t="n">
-        <v>433.1659828319418</v>
+        <v>433.1659828319414</v>
       </c>
       <c r="L38" t="n">
-        <v>703.4506798655947</v>
+        <v>703.450679865594</v>
       </c>
       <c r="M38" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N38" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O38" t="n">
-        <v>1612.988324273003</v>
+        <v>1612.988324273002</v>
       </c>
       <c r="P38" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q38" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R38" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S38" t="n">
-        <v>2119.80001462269</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T38" t="n">
-        <v>2119.80001462269</v>
+        <v>1848.640325223458</v>
       </c>
       <c r="U38" t="n">
-        <v>2119.80001462269</v>
+        <v>1590.444836178959</v>
       </c>
       <c r="V38" t="n">
-        <v>2119.80001462269</v>
+        <v>1232.955421305208</v>
       </c>
       <c r="W38" t="n">
-        <v>2119.80001462269</v>
+        <v>836.5640716055552</v>
       </c>
       <c r="X38" t="n">
-        <v>2119.80001462269</v>
+        <v>836.5640716055552</v>
       </c>
       <c r="Y38" t="n">
-        <v>2119.80001462269</v>
+        <v>722.2023898339227</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>902.4081515166753</v>
+        <v>598.1558558515571</v>
       </c>
       <c r="C39" t="n">
-        <v>784.90224803418</v>
+        <v>480.6499523690619</v>
       </c>
       <c r="D39" t="n">
-        <v>681.062289549465</v>
+        <v>376.8099938843469</v>
       </c>
       <c r="E39" t="n">
-        <v>576.3603558224023</v>
+        <v>272.1080601572841</v>
       </c>
       <c r="F39" t="n">
-        <v>482.7145255053065</v>
+        <v>178.4622298401883</v>
       </c>
       <c r="G39" t="n">
-        <v>389.7269713721682</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H39" t="n">
-        <v>346.648295957572</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I39" t="n">
-        <v>366.6167969197835</v>
+        <v>62.36450125466527</v>
       </c>
       <c r="J39" t="n">
-        <v>444.9413693194562</v>
+        <v>415.7924924818267</v>
       </c>
       <c r="K39" t="n">
-        <v>591.51069792264</v>
+        <v>562.3618210850104</v>
       </c>
       <c r="L39" t="n">
-        <v>796.1186609459276</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M39" t="n">
-        <v>1038.031994137956</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N39" t="n">
-        <v>1288.689458222798</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.484770057651</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P39" t="n">
-        <v>1967.480788280291</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q39" t="n">
-        <v>2078.354543245092</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R39" t="n">
-        <v>2119.80001462269</v>
+        <v>1815.547718957572</v>
       </c>
       <c r="S39" t="n">
-        <v>2058.280292379587</v>
+        <v>1754.027996714468</v>
       </c>
       <c r="T39" t="n">
-        <v>1920.697962026685</v>
+        <v>1616.445666361567</v>
       </c>
       <c r="U39" t="n">
-        <v>1735.999911844299</v>
+        <v>1431.747616179181</v>
       </c>
       <c r="V39" t="n">
-        <v>1531.026772983565</v>
+        <v>1226.774477318447</v>
       </c>
       <c r="W39" t="n">
-        <v>1334.505395816783</v>
+        <v>1030.253100151665</v>
       </c>
       <c r="X39" t="n">
-        <v>1171.028049583446</v>
+        <v>866.7757539183275</v>
       </c>
       <c r="Y39" t="n">
-        <v>1031.335160936738</v>
+        <v>727.0828652716199</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1089.85438515991</v>
+        <v>1020.656163614482</v>
       </c>
       <c r="C40" t="n">
-        <v>917.8818220388257</v>
+        <v>848.6836004933978</v>
       </c>
       <c r="D40" t="n">
-        <v>754.5650491655964</v>
+        <v>685.3668276201685</v>
       </c>
       <c r="E40" t="n">
-        <v>588.3568433184499</v>
+        <v>519.158621773022</v>
       </c>
       <c r="F40" t="n">
-        <v>416.4950690930103</v>
+        <v>347.2968475475824</v>
       </c>
       <c r="G40" t="n">
-        <v>251.1319804478079</v>
+        <v>181.93375890238</v>
       </c>
       <c r="H40" t="n">
-        <v>115.2831272035355</v>
+        <v>46.08490565810763</v>
       </c>
       <c r="I40" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J40" t="n">
-        <v>161.8270914180508</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K40" t="n">
-        <v>449.5807347269277</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L40" t="n">
-        <v>934.5211660239373</v>
+        <v>536.4882431820566</v>
       </c>
       <c r="M40" t="n">
-        <v>1459.171669643053</v>
+        <v>1061.138746801172</v>
       </c>
       <c r="N40" t="n">
         <v>1572.696353719374</v>
@@ -7350,34 +7350,34 @@
         <v>1674.253897017314</v>
       </c>
       <c r="P40" t="n">
-        <v>2070.812554180407</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q40" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R40" t="n">
-        <v>2119.80001462269</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S40" t="n">
-        <v>2119.80001462269</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="T40" t="n">
-        <v>2119.80001462269</v>
+        <v>1718.876368028777</v>
       </c>
       <c r="U40" t="n">
-        <v>2119.80001462269</v>
+        <v>1718.876368028777</v>
       </c>
       <c r="V40" t="n">
-        <v>1838.088547230719</v>
+        <v>1437.164900636805</v>
       </c>
       <c r="W40" t="n">
-        <v>1563.236143403232</v>
+        <v>1437.164900636805</v>
       </c>
       <c r="X40" t="n">
-        <v>1320.672246849037</v>
+        <v>1437.164900636805</v>
       </c>
       <c r="Y40" t="n">
-        <v>1094.329478538779</v>
+        <v>1210.822132326547</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>722.2023898339227</v>
+        <v>1703.353198531199</v>
       </c>
       <c r="C41" t="n">
-        <v>722.2023898339227</v>
+        <v>1276.4524685445</v>
       </c>
       <c r="D41" t="n">
-        <v>722.2023898339227</v>
+        <v>853.1598477294999</v>
       </c>
       <c r="E41" t="n">
-        <v>722.2023898339227</v>
+        <v>427.1829078773575</v>
       </c>
       <c r="F41" t="n">
-        <v>722.2023898339227</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G41" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H41" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I41" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423379</v>
       </c>
       <c r="J41" t="n">
-        <v>220.1314621299489</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K41" t="n">
-        <v>433.165982831942</v>
+        <v>433.1659828319421</v>
       </c>
       <c r="L41" t="n">
-        <v>703.4506798655947</v>
+        <v>703.4506798655948</v>
       </c>
       <c r="M41" t="n">
         <v>1009.340767185891</v>
@@ -7426,37 +7426,37 @@
         <v>1320.93021977883</v>
       </c>
       <c r="O41" t="n">
-        <v>1612.988324273004</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P41" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q41" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R41" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S41" t="n">
-        <v>2060.842613404951</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T41" t="n">
-        <v>1848.640325223459</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U41" t="n">
-        <v>1848.640325223459</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="V41" t="n">
-        <v>1491.150910349709</v>
+        <v>1703.353198531199</v>
       </c>
       <c r="W41" t="n">
-        <v>1133.922388666175</v>
+        <v>1703.353198531199</v>
       </c>
       <c r="X41" t="n">
-        <v>722.2023898339227</v>
+        <v>1703.353198531199</v>
       </c>
       <c r="Y41" t="n">
-        <v>722.2023898339227</v>
+        <v>1703.353198531199</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.47467570705001</v>
       </c>
       <c r="H42" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I42" t="n">
-        <v>62.36450125466529</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J42" t="n">
-        <v>140.689073654338</v>
+        <v>310.3369921969208</v>
       </c>
       <c r="K42" t="n">
-        <v>287.2584022575218</v>
+        <v>456.9063208001047</v>
       </c>
       <c r="L42" t="n">
-        <v>491.8663652808093</v>
+        <v>661.5142838233921</v>
       </c>
       <c r="M42" t="n">
-        <v>733.779698472838</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N42" t="n">
-        <v>984.4371625576798</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O42" t="n">
-        <v>1210.129055565045</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.125073787684</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R42" t="n">
         <v>1815.547718957572</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.5341895310395</v>
+        <v>917.8818220388257</v>
       </c>
       <c r="C43" t="n">
-        <v>341.5616264099555</v>
+        <v>917.8818220388257</v>
       </c>
       <c r="D43" t="n">
-        <v>178.2448535367262</v>
+        <v>754.5650491655964</v>
       </c>
       <c r="E43" t="n">
-        <v>178.2448535367262</v>
+        <v>588.3568433184499</v>
       </c>
       <c r="F43" t="n">
-        <v>178.2448535367262</v>
+        <v>416.4950690930103</v>
       </c>
       <c r="G43" t="n">
-        <v>178.2448535367262</v>
+        <v>251.1319804478079</v>
       </c>
       <c r="H43" t="n">
-        <v>42.3960002924538</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="I43" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J43" t="n">
-        <v>161.8270914180508</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K43" t="n">
-        <v>490.1407502142686</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L43" t="n">
-        <v>975.0811815112781</v>
+        <v>975.0811815112779</v>
       </c>
       <c r="M43" t="n">
-        <v>1499.731685130394</v>
+        <v>1090.063028963224</v>
       </c>
       <c r="N43" t="n">
-        <v>1613.256369206715</v>
+        <v>1203.587713039546</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.636604212723</v>
+        <v>1522.880399639414</v>
       </c>
       <c r="P43" t="n">
-        <v>1919.439056802507</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q43" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R43" t="n">
         <v>2112.953544269471</v>
       </c>
       <c r="S43" t="n">
-        <v>1958.396405816825</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="T43" t="n">
-        <v>1718.876368028778</v>
+        <v>1718.876368028777</v>
       </c>
       <c r="U43" t="n">
-        <v>1438.74067667784</v>
+        <v>1438.740676677839</v>
       </c>
       <c r="V43" t="n">
-        <v>1157.029209285869</v>
+        <v>1157.029209285868</v>
       </c>
       <c r="W43" t="n">
-        <v>1157.029209285869</v>
+        <v>1108.047790750891</v>
       </c>
       <c r="X43" t="n">
-        <v>930.042926553363</v>
+        <v>1108.047790750891</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.7001582431051</v>
+        <v>1108.047790750891</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.5201821030536</v>
+        <v>895.2736701312961</v>
       </c>
       <c r="C44" t="n">
-        <v>467.5201821030536</v>
+        <v>468.3729401445962</v>
       </c>
       <c r="D44" t="n">
-        <v>467.5201821030536</v>
+        <v>468.3729401445962</v>
       </c>
       <c r="E44" t="n">
-        <v>467.5201821030536</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="F44" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G44" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H44" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I44" t="n">
-        <v>83.49041341423384</v>
+        <v>83.4904134142338</v>
       </c>
       <c r="J44" t="n">
-        <v>220.1314621299488</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K44" t="n">
-        <v>433.1659828319424</v>
+        <v>433.1659828319417</v>
       </c>
       <c r="L44" t="n">
-        <v>703.4506798655951</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M44" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.930219778831</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O44" t="n">
-        <v>1612.988324273004</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P44" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q44" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R44" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S44" t="n">
-        <v>2060.842613404951</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T44" t="n">
-        <v>1848.640325223459</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U44" t="n">
-        <v>1590.44483617896</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="V44" t="n">
-        <v>1590.44483617896</v>
+        <v>1711.513384122479</v>
       </c>
       <c r="W44" t="n">
-        <v>1194.053486479307</v>
+        <v>1315.122034422826</v>
       </c>
       <c r="X44" t="n">
-        <v>1194.053486479307</v>
+        <v>1315.122034422826</v>
       </c>
       <c r="Y44" t="n">
-        <v>887.3685463945836</v>
+        <v>1315.122034422826</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>902.4081515166753</v>
+        <v>598.1558558515571</v>
       </c>
       <c r="C45" t="n">
-        <v>784.90224803418</v>
+        <v>480.6499523690619</v>
       </c>
       <c r="D45" t="n">
-        <v>681.062289549465</v>
+        <v>376.8099938843469</v>
       </c>
       <c r="E45" t="n">
-        <v>576.3603558224023</v>
+        <v>272.1080601572841</v>
       </c>
       <c r="F45" t="n">
-        <v>482.7145255053065</v>
+        <v>178.4622298401883</v>
       </c>
       <c r="G45" t="n">
-        <v>389.7269713721682</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H45" t="n">
-        <v>346.648295957572</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I45" t="n">
-        <v>366.6167969197835</v>
+        <v>62.36450125466527</v>
       </c>
       <c r="J45" t="n">
-        <v>614.5892878620389</v>
+        <v>415.7924924818267</v>
       </c>
       <c r="K45" t="n">
-        <v>761.1586164652227</v>
+        <v>562.3618210850104</v>
       </c>
       <c r="L45" t="n">
-        <v>965.7665794885103</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M45" t="n">
-        <v>1207.679912680539</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.337376765381</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O45" t="n">
-        <v>1684.029269772745</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P45" t="n">
-        <v>1862.025287995385</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1972.899042960186</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R45" t="n">
-        <v>2119.80001462269</v>
+        <v>1815.547718957572</v>
       </c>
       <c r="S45" t="n">
-        <v>2058.280292379587</v>
+        <v>1754.027996714468</v>
       </c>
       <c r="T45" t="n">
-        <v>1920.697962026685</v>
+        <v>1616.445666361567</v>
       </c>
       <c r="U45" t="n">
-        <v>1735.999911844299</v>
+        <v>1431.747616179181</v>
       </c>
       <c r="V45" t="n">
-        <v>1531.026772983565</v>
+        <v>1226.774477318447</v>
       </c>
       <c r="W45" t="n">
-        <v>1334.505395816783</v>
+        <v>1030.253100151665</v>
       </c>
       <c r="X45" t="n">
-        <v>1171.028049583446</v>
+        <v>866.7757539183275</v>
       </c>
       <c r="Y45" t="n">
-        <v>1031.335160936738</v>
+        <v>727.0828652716199</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.967258248828</v>
+        <v>788.6424432704349</v>
       </c>
       <c r="C46" t="n">
-        <v>844.994695127744</v>
+        <v>616.6698801493509</v>
       </c>
       <c r="D46" t="n">
-        <v>681.6779222545147</v>
+        <v>453.3531072761216</v>
       </c>
       <c r="E46" t="n">
-        <v>515.4697164073682</v>
+        <v>287.1449014289751</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6079421819286</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="G46" t="n">
-        <v>178.2448535367262</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="H46" t="n">
-        <v>42.3960002924538</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="I46" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J46" t="n">
-        <v>83.90537476982992</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K46" t="n">
-        <v>296.8938066369902</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L46" t="n">
-        <v>405.4453443428348</v>
+        <v>471.5421234521609</v>
       </c>
       <c r="M46" t="n">
-        <v>930.0958479619505</v>
+        <v>996.1926270712764</v>
       </c>
       <c r="N46" t="n">
-        <v>1043.620532038272</v>
+        <v>1507.750233989478</v>
       </c>
       <c r="O46" t="n">
-        <v>1522.880399639415</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P46" t="n">
-        <v>1919.439056802507</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q46" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R46" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S46" t="n">
-        <v>2119.80001462269</v>
+        <v>2004.278948066411</v>
       </c>
       <c r="T46" t="n">
-        <v>1880.279976834643</v>
+        <v>2004.278948066411</v>
       </c>
       <c r="U46" t="n">
-        <v>1600.144285483705</v>
+        <v>2004.278948066411</v>
       </c>
       <c r="V46" t="n">
-        <v>1600.144285483705</v>
+        <v>1722.56748067444</v>
       </c>
       <c r="W46" t="n">
-        <v>1325.291881656218</v>
+        <v>1447.715076846953</v>
       </c>
       <c r="X46" t="n">
-        <v>1243.310026559086</v>
+        <v>1205.151180292758</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.967258248828</v>
+        <v>978.8084119825005</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>147.6672855537082</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>171.3615338813967</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>219.2372689292234</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>154.3323470424577</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>171.3615338813969</v>
       </c>
       <c r="K15" t="n">
-        <v>277.8822412398877</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>413.8067234011809</v>
       </c>
       <c r="N16" t="n">
-        <v>319.8087294331996</v>
+        <v>221.9173641868747</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>277.8822412398877</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>277.8822412398872</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>145.0435510204577</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>413.8067234011809</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>100.1804671286383</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>147.6672855537082</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>277.8822412398875</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>413.8067234011809</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>134.616982724245</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>70.0283161867124</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>147.6672855537082</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>277.8822412398872</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>276.7806370701363</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>154.3323470424576</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>147.6672855537082</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.8822412398872</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>48.47888346306048</v>
       </c>
       <c r="K28" t="n">
-        <v>186.9480448242084</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>413.8067234011812</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>147.6672855537082</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>277.8822412398874</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>146.370248709386</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>413.8067234011809</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>201.3814060669992</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>277.8822412398877</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.121595245671159</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>276.7606459942162</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10509,22 +10509,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>145.0435510204584</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>413.8067234011808</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>48.47888346306014</v>
       </c>
       <c r="Q34" t="n">
         <v>152.9025226039384</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>277.8822412398877</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>277.8822412398872</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>48.47888346306048</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>219.2372689292243</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>277.8822412398877</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>277.8822412398875</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.8107006330114</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>265.6568495193803</v>
       </c>
       <c r="M40" t="n">
-        <v>413.8067234011812</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>147.6672855537082</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>277.8822412398872</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>413.8067234011811</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>122.043122937442</v>
+        <v>219.9344881837666</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>171.3615338813967</v>
+        <v>277.8822412398877</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>133.2902850353178</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>200.0547083780716</v>
       </c>
       <c r="M46" t="n">
-        <v>413.8067234011812</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>368.307660405685</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3228448427254</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>297.3457863919472</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.626377938526311</v>
+        <v>56.13755540287514</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3228448427254</v>
+        <v>325.8413881455149</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.080265299677</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.10198037088469</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.382344214080708</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>83.65213904078277</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>272.2143754090814</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.080265299677</v>
@@ -23791,16 +23791,16 @@
         <v>255.6135341540542</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>391.6760813903516</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>137.7767188632739</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7094577587503</v>
@@ -23910,7 +23910,7 @@
         <v>134.4903647118297</v>
       </c>
       <c r="I19" t="n">
-        <v>72.15825564197092</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>9.573819114359367</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>359.4402417480053</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -23986,7 +23986,7 @@
         <v>398.3228448427254</v>
       </c>
       <c r="H20" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>41.33358874532178</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.061205375109</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H22" t="n">
         <v>134.4903647118297</v>
       </c>
       <c r="I22" t="n">
-        <v>72.15825564197091</v>
+        <v>56.7319976086432</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.778005649686229</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.0770081860626</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3228448427254</v>
+        <v>326.6856186066422</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>153.0353527608548</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>154.7168984498575</v>
       </c>
       <c r="G25" t="n">
         <v>163.7094577587503</v>
@@ -24384,7 +24384,7 @@
         <v>134.4903647118297</v>
       </c>
       <c r="I25" t="n">
-        <v>72.15825564197091</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>209.328910487372</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.3228448427254</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>258.1683383416487</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>131.343020138839</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>134.4903647118297</v>
       </c>
       <c r="I28" t="n">
-        <v>72.15825564197091</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>147.3286390596567</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24691,13 +24691,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>210.080265299677</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>93.1609297323389</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>292.2272877031029</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>166.5578300475903</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>134.914200219095</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>23.06678580472442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>47.62766087796211</v>
       </c>
     </row>
     <row r="33">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>153.0353527608548</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.7094577587503</v>
@@ -25095,7 +25095,7 @@
         <v>134.4903647118297</v>
       </c>
       <c r="I34" t="n">
-        <v>72.15825564197091</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.483337031424213</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>48.98898733764963</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>274.6854808033287</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.820673267677194</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>166.5578300475903</v>
       </c>
       <c r="G37" t="n">
-        <v>105.3430675201072</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>297.250065240683</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>288.0658323907423</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.8339665798643</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>68.50623932997362</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3343344374282</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>39.93390148343912</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U41" t="n">
         <v>255.6135341540542</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>38.77119973595887</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>223.6122754395854</v>
       </c>
       <c r="X43" t="n">
-        <v>15.42183768347226</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>398.3228448427254</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>8.078583735366919</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.66580666078278</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I46" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.778005649686222</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S46" t="n">
-        <v>153.01156706812</v>
+        <v>38.64571117740515</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>158.9762210424923</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>338796.3221992547</v>
+        <v>338796.3221992548</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>338796.3221992548</v>
+        <v>338796.3221992547</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>338796.3221992548</v>
+        <v>338796.3221992547</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>338796.3221992549</v>
+        <v>338796.3221992547</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>338796.3221992549</v>
+        <v>338796.3221992548</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>338796.3221992548</v>
+        <v>338796.3221992547</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>338796.3221992549</v>
+        <v>338796.3221992548</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>473359.7714790576</v>
       </c>
       <c r="C2" t="n">
-        <v>473359.7714790577</v>
+        <v>473359.7714790576</v>
       </c>
       <c r="D2" t="n">
-        <v>473360.8875806607</v>
+        <v>473360.8875806609</v>
       </c>
       <c r="E2" t="n">
         <v>279938.1088264853</v>
@@ -26337,19 +26337,19 @@
         <v>279938.1088264853</v>
       </c>
       <c r="J2" t="n">
+        <v>279938.1088264852</v>
+      </c>
+      <c r="K2" t="n">
         <v>279938.1088264853</v>
-      </c>
-      <c r="K2" t="n">
-        <v>279938.1088264852</v>
       </c>
       <c r="L2" t="n">
         <v>279938.1088264852</v>
       </c>
       <c r="M2" t="n">
-        <v>279938.1088264854</v>
+        <v>279938.1088264853</v>
       </c>
       <c r="N2" t="n">
-        <v>279938.1088264855</v>
+        <v>279938.1088264852</v>
       </c>
       <c r="O2" t="n">
         <v>279938.1088264853</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3620.625146095253</v>
+        <v>3620.625146095259</v>
       </c>
       <c r="E3" t="n">
-        <v>518446.2164292486</v>
+        <v>518446.2164292485</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313826.9477707467</v>
+        <v>313826.9477707468</v>
       </c>
       <c r="C4" t="n">
-        <v>313826.9477707467</v>
+        <v>313826.9477707468</v>
       </c>
       <c r="D4" t="n">
-        <v>312459.3647125762</v>
+        <v>312459.3647125761</v>
       </c>
       <c r="E4" t="n">
-        <v>25366.32243737113</v>
+        <v>25366.32243737114</v>
       </c>
       <c r="F4" t="n">
         <v>25366.32243737114</v>
       </c>
       <c r="G4" t="n">
-        <v>25366.32243737115</v>
+        <v>25366.32243737113</v>
       </c>
       <c r="H4" t="n">
-        <v>25366.32243737113</v>
+        <v>25366.32243737114</v>
       </c>
       <c r="I4" t="n">
         <v>25366.32243737114</v>
       </c>
       <c r="J4" t="n">
-        <v>25366.32243737115</v>
+        <v>25366.32243737114</v>
       </c>
       <c r="K4" t="n">
-        <v>25366.32243737115</v>
+        <v>25366.32243737114</v>
       </c>
       <c r="L4" t="n">
-        <v>25366.32243737115</v>
+        <v>25366.32243737113</v>
       </c>
       <c r="M4" t="n">
         <v>25366.32243737114</v>
       </c>
       <c r="N4" t="n">
-        <v>25366.32243737115</v>
+        <v>25366.32243737114</v>
       </c>
       <c r="O4" t="n">
         <v>25366.32243737114</v>
@@ -26490,28 +26490,28 @@
         <v>42919.10753132481</v>
       </c>
       <c r="I5" t="n">
-        <v>42919.10753132482</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="J5" t="n">
-        <v>42919.10753132482</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="K5" t="n">
-        <v>42919.10753132482</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="L5" t="n">
-        <v>42919.10753132482</v>
+        <v>42919.1075313248</v>
       </c>
       <c r="M5" t="n">
-        <v>42919.10753132482</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="N5" t="n">
-        <v>42919.10753132482</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="O5" t="n">
-        <v>42919.10753132483</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="P5" t="n">
-        <v>42919.10753132483</v>
+        <v>42919.10753132481</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88309.98718046019</v>
+        <v>88288.30406036876</v>
       </c>
       <c r="C6" t="n">
-        <v>125073.5154232497</v>
+        <v>125051.8323031581</v>
       </c>
       <c r="D6" t="n">
-        <v>122729.4265014961</v>
+        <v>122707.7467635311</v>
       </c>
       <c r="E6" t="n">
-        <v>-306793.5375714593</v>
+        <v>-307401.3469420128</v>
       </c>
       <c r="F6" t="n">
-        <v>211652.6788577895</v>
+        <v>211044.8694872358</v>
       </c>
       <c r="G6" t="n">
-        <v>211652.6788577894</v>
+        <v>211044.8694872357</v>
       </c>
       <c r="H6" t="n">
-        <v>211652.6788577893</v>
+        <v>211044.8694872357</v>
       </c>
       <c r="I6" t="n">
-        <v>211652.6788577894</v>
+        <v>211044.8694872356</v>
       </c>
       <c r="J6" t="n">
-        <v>211652.6788577893</v>
+        <v>211044.8694872355</v>
       </c>
       <c r="K6" t="n">
-        <v>211652.6788577893</v>
+        <v>211044.8694872357</v>
       </c>
       <c r="L6" t="n">
-        <v>211652.6788577893</v>
+        <v>211044.8694872356</v>
       </c>
       <c r="M6" t="n">
-        <v>79587.01814678128</v>
+        <v>78979.20877622749</v>
       </c>
       <c r="N6" t="n">
-        <v>211652.6788577895</v>
+        <v>211044.8694872355</v>
       </c>
       <c r="O6" t="n">
-        <v>211652.6788577894</v>
+        <v>211044.8694872356</v>
       </c>
       <c r="P6" t="n">
-        <v>211652.6788577894</v>
+        <v>211044.8694872357</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
+        <v>490.7407022504557</v>
+      </c>
+      <c r="F3" t="n">
+        <v>490.7407022504558</v>
+      </c>
+      <c r="G3" t="n">
         <v>490.7407022504559</v>
-      </c>
-      <c r="F3" t="n">
-        <v>490.7407022504557</v>
-      </c>
-      <c r="G3" t="n">
-        <v>490.7407022504557</v>
       </c>
       <c r="H3" t="n">
         <v>490.7407022504558</v>
       </c>
       <c r="I3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="J3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="K3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="L3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="M3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="N3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="O3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="P3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>529.9500036556723</v>
       </c>
       <c r="I4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="J4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="K4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="L4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556722</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="O4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="P4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.22765758861398</v>
+        <v>4.227657588613987</v>
       </c>
       <c r="E3" t="n">
-        <v>448.3612884663678</v>
+        <v>448.3612884663677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H11" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I11" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J11" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K11" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L11" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M11" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N11" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O11" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P11" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q11" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R11" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S11" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T11" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H12" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I12" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J12" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K12" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L12" t="n">
         <v>229.1897968387624</v>
@@ -31855,7 +31855,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O12" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P12" t="n">
         <v>201.564799005475</v>
@@ -31864,7 +31864,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R12" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S12" t="n">
         <v>19.60647994368565</v>
@@ -31873,7 +31873,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H13" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I13" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J13" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K13" t="n">
         <v>102.814199586243</v>
@@ -31934,25 +31934,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O13" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P13" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R13" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S13" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T13" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,19 +31992,19 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H14" t="n">
-        <v>20.20421393737679</v>
+        <v>20.2042139373768</v>
       </c>
       <c r="I14" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778172</v>
       </c>
       <c r="J14" t="n">
-        <v>167.4412208145914</v>
+        <v>167.4412208145915</v>
       </c>
       <c r="K14" t="n">
-        <v>250.950985342277</v>
+        <v>250.9509853422771</v>
       </c>
       <c r="L14" t="n">
-        <v>311.326887921161</v>
+        <v>311.3268879211611</v>
       </c>
       <c r="M14" t="n">
         <v>346.4111490815491</v>
@@ -32019,19 +32019,19 @@
         <v>283.6949805406768</v>
       </c>
       <c r="Q14" t="n">
-        <v>213.043115618689</v>
+        <v>213.0431156186891</v>
       </c>
       <c r="R14" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S14" t="n">
-        <v>44.9557939800292</v>
+        <v>44.95579398002921</v>
       </c>
       <c r="T14" t="n">
         <v>8.63604994613616</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1578261554976338</v>
+        <v>0.1578261554976339</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32110,7 +32110,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06944443899770603</v>
+        <v>0.06944443899770604</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,13 +32150,13 @@
         <v>0.8849422499598382</v>
       </c>
       <c r="H16" t="n">
-        <v>7.867941095097476</v>
+        <v>7.867941095097477</v>
       </c>
       <c r="I16" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J16" t="n">
-        <v>62.56541707216055</v>
+        <v>62.56541707216056</v>
       </c>
       <c r="K16" t="n">
         <v>102.814199586243</v>
@@ -32177,7 +32177,7 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.10184603981881</v>
+        <v>74.10184603981882</v>
       </c>
       <c r="R16" t="n">
         <v>39.79022153001235</v>
@@ -32229,46 +32229,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H17" t="n">
-        <v>20.20421393737679</v>
+        <v>20.2042139373768</v>
       </c>
       <c r="I17" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778172</v>
       </c>
       <c r="J17" t="n">
-        <v>167.4412208145914</v>
+        <v>167.4412208145915</v>
       </c>
       <c r="K17" t="n">
-        <v>250.950985342277</v>
+        <v>250.9509853422771</v>
       </c>
       <c r="L17" t="n">
-        <v>311.326887921161</v>
+        <v>311.3268879211611</v>
       </c>
       <c r="M17" t="n">
-        <v>346.4111490815491</v>
+        <v>346.4111490815492</v>
       </c>
       <c r="N17" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353949</v>
       </c>
       <c r="O17" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P17" t="n">
-        <v>283.6949805406768</v>
+        <v>283.6949805406769</v>
       </c>
       <c r="Q17" t="n">
-        <v>213.043115618689</v>
+        <v>213.0431156186891</v>
       </c>
       <c r="R17" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S17" t="n">
-        <v>44.9557939800292</v>
+        <v>44.95579398002921</v>
       </c>
       <c r="T17" t="n">
-        <v>8.63604994613616</v>
+        <v>8.636049946136161</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1578261554976338</v>
+        <v>0.1578261554976339</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.055555472765131</v>
+        <v>1.055555472765132</v>
       </c>
       <c r="H18" t="n">
-        <v>10.19444364486324</v>
+        <v>10.19444364486325</v>
       </c>
       <c r="I18" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J18" t="n">
-        <v>99.72684402997236</v>
+        <v>99.72684402997237</v>
       </c>
       <c r="K18" t="n">
-        <v>170.4490607052361</v>
+        <v>170.4490607052362</v>
       </c>
       <c r="L18" t="n">
         <v>229.1897968387624</v>
@@ -32329,7 +32329,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O18" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205706</v>
       </c>
       <c r="P18" t="n">
         <v>201.564799005475</v>
@@ -32338,7 +32338,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R18" t="n">
-        <v>65.53703189676844</v>
+        <v>65.53703189676845</v>
       </c>
       <c r="S18" t="n">
         <v>19.60647994368565</v>
@@ -32347,7 +32347,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06944443899770603</v>
+        <v>0.06944443899770604</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8849422499598382</v>
+        <v>0.8849422499598383</v>
       </c>
       <c r="H19" t="n">
-        <v>7.867941095097476</v>
+        <v>7.867941095097478</v>
       </c>
       <c r="I19" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J19" t="n">
-        <v>62.56541707216055</v>
+        <v>62.56541707216056</v>
       </c>
       <c r="K19" t="n">
         <v>102.814199586243</v>
@@ -32408,25 +32408,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O19" t="n">
-        <v>125.0825645670506</v>
+        <v>125.0825645670507</v>
       </c>
       <c r="P19" t="n">
-        <v>107.0297426678698</v>
+        <v>107.0297426678699</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.10184603981881</v>
+        <v>74.10184603981884</v>
       </c>
       <c r="R19" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001236</v>
       </c>
       <c r="S19" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T19" t="n">
-        <v>3.781116886192035</v>
+        <v>3.781116886192036</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.04826957727053669</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H23" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I23" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J23" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K23" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L23" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M23" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N23" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O23" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P23" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q23" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R23" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S23" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T23" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H24" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I24" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J24" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K24" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L24" t="n">
         <v>229.1897968387624</v>
@@ -32803,7 +32803,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O24" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P24" t="n">
         <v>201.564799005475</v>
@@ -32812,7 +32812,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R24" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S24" t="n">
         <v>19.60647994368565</v>
@@ -32821,7 +32821,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H25" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I25" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J25" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K25" t="n">
         <v>102.814199586243</v>
@@ -32882,25 +32882,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O25" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P25" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R25" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S25" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T25" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H26" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I26" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J26" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K26" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L26" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M26" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N26" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O26" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P26" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R26" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S26" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T26" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H27" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I27" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J27" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K27" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L27" t="n">
         <v>229.1897968387624</v>
@@ -33040,7 +33040,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O27" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P27" t="n">
         <v>201.564799005475</v>
@@ -33049,7 +33049,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R27" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S27" t="n">
         <v>19.60647994368565</v>
@@ -33058,7 +33058,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H28" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I28" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J28" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K28" t="n">
         <v>102.814199586243</v>
@@ -33119,25 +33119,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O28" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P28" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R28" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S28" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T28" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H29" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I29" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J29" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K29" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L29" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M29" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N29" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O29" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P29" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R29" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S29" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T29" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H30" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I30" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J30" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K30" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L30" t="n">
         <v>229.1897968387624</v>
@@ -33277,7 +33277,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O30" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P30" t="n">
         <v>201.564799005475</v>
@@ -33286,7 +33286,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R30" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S30" t="n">
         <v>19.60647994368565</v>
@@ -33295,7 +33295,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H31" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I31" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J31" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K31" t="n">
         <v>102.814199586243</v>
@@ -33356,25 +33356,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O31" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P31" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R31" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S31" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T31" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H32" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I32" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J32" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K32" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L32" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M32" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N32" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O32" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P32" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R32" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S32" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T32" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H33" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I33" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J33" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K33" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L33" t="n">
         <v>229.1897968387624</v>
@@ -33514,7 +33514,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O33" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P33" t="n">
         <v>201.564799005475</v>
@@ -33523,7 +33523,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R33" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S33" t="n">
         <v>19.60647994368565</v>
@@ -33532,7 +33532,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H34" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I34" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J34" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K34" t="n">
         <v>102.814199586243</v>
@@ -33593,25 +33593,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O34" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P34" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R34" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S34" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T34" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H35" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I35" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J35" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K35" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L35" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M35" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N35" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O35" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P35" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q35" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R35" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S35" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T35" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H36" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I36" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J36" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K36" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L36" t="n">
         <v>229.1897968387624</v>
@@ -33751,7 +33751,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O36" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P36" t="n">
         <v>201.564799005475</v>
@@ -33760,7 +33760,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R36" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S36" t="n">
         <v>19.60647994368565</v>
@@ -33769,7 +33769,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H37" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I37" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J37" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K37" t="n">
         <v>102.814199586243</v>
@@ -33830,25 +33830,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O37" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P37" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R37" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S37" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T37" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H38" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I38" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J38" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K38" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L38" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M38" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N38" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O38" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P38" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q38" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R38" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S38" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T38" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H39" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I39" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J39" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K39" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L39" t="n">
         <v>229.1897968387624</v>
@@ -33988,7 +33988,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O39" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P39" t="n">
         <v>201.564799005475</v>
@@ -33997,7 +33997,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R39" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S39" t="n">
         <v>19.60647994368565</v>
@@ -34006,7 +34006,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H40" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I40" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J40" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K40" t="n">
         <v>102.814199586243</v>
@@ -34067,25 +34067,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O40" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P40" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R40" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S40" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T40" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H41" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I41" t="n">
-        <v>76.05741074778173</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J41" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K41" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L41" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M41" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N41" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O41" t="n">
-        <v>332.3991457137749</v>
+        <v>332.3991457137748</v>
       </c>
       <c r="P41" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q41" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R41" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S41" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T41" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H42" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I42" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J42" t="n">
-        <v>99.72684402997238</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K42" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L42" t="n">
-        <v>229.1897968387625</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M42" t="n">
         <v>267.4536827264984</v>
       </c>
       <c r="N42" t="n">
-        <v>274.532385874998</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O42" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P42" t="n">
         <v>201.564799005475</v>
       </c>
       <c r="Q42" t="n">
-        <v>134.7407301726158</v>
+        <v>134.7407301726157</v>
       </c>
       <c r="R42" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S42" t="n">
-        <v>19.60647994368566</v>
+        <v>19.60647994368565</v>
       </c>
       <c r="T42" t="n">
-        <v>4.254629295926121</v>
+        <v>4.25462929592612</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06944443899770605</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8849422499598384</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H43" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I43" t="n">
-        <v>26.61262693515588</v>
+        <v>26.61262693515587</v>
       </c>
       <c r="J43" t="n">
-        <v>62.56541707216057</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K43" t="n">
         <v>102.814199586243</v>
@@ -34304,25 +34304,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O43" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P43" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R43" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S43" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T43" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0482695772705367</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H44" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I44" t="n">
-        <v>76.05741074778173</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J44" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K44" t="n">
-        <v>250.9509853422776</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L44" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M44" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N44" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O44" t="n">
-        <v>332.3991457137749</v>
+        <v>332.3991457137748</v>
       </c>
       <c r="P44" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q44" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R44" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S44" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T44" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H45" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I45" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J45" t="n">
-        <v>99.72684402997238</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K45" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L45" t="n">
-        <v>229.1897968387625</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M45" t="n">
         <v>267.4536827264984</v>
       </c>
       <c r="N45" t="n">
-        <v>274.532385874998</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O45" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P45" t="n">
         <v>201.564799005475</v>
       </c>
       <c r="Q45" t="n">
-        <v>134.7407301726158</v>
+        <v>134.7407301726157</v>
       </c>
       <c r="R45" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S45" t="n">
-        <v>19.60647994368566</v>
+        <v>19.60647994368565</v>
       </c>
       <c r="T45" t="n">
-        <v>4.254629295926121</v>
+        <v>4.25462929592612</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06944443899770605</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8849422499598384</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H46" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I46" t="n">
-        <v>26.61262693515588</v>
+        <v>26.61262693515587</v>
       </c>
       <c r="J46" t="n">
-        <v>62.56541707216057</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K46" t="n">
         <v>102.814199586243</v>
@@ -34541,25 +34541,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O46" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P46" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R46" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S46" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T46" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0482695772705367</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J11" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K11" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L11" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M11" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N11" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O11" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P11" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R11" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J12" t="n">
-        <v>79.11572969663904</v>
+        <v>226.7830152503472</v>
       </c>
       <c r="K12" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L12" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M12" t="n">
-        <v>415.7184360955671</v>
+        <v>244.3569022141704</v>
       </c>
       <c r="N12" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O12" t="n">
         <v>227.9716090983483</v>
@@ -35570,25 +35570,25 @@
         <v>120.6374657834313</v>
       </c>
       <c r="K13" t="n">
-        <v>81.84954513353101</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L13" t="n">
-        <v>109.6480178846915</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M13" t="n">
-        <v>335.3805491837148</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N13" t="n">
-        <v>516.7248554729308</v>
+        <v>269.003745099348</v>
       </c>
       <c r="O13" t="n">
         <v>484.1008763647911</v>
       </c>
       <c r="P13" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.48228327503389</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381821</v>
       </c>
       <c r="J14" t="n">
         <v>138.0212613290049</v>
@@ -35655,10 +35655,10 @@
         <v>273.0148454885381</v>
       </c>
       <c r="M14" t="n">
-        <v>308.9798861821172</v>
+        <v>308.9798861821173</v>
       </c>
       <c r="N14" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009488</v>
       </c>
       <c r="O14" t="n">
         <v>295.0081863577507</v>
@@ -35725,19 +35725,19 @@
         <v>20.17020299213281</v>
       </c>
       <c r="J15" t="n">
-        <v>79.11572969663902</v>
+        <v>250.4772635780359</v>
       </c>
       <c r="K15" t="n">
-        <v>425.9320681117904</v>
+        <v>148.0498268719028</v>
       </c>
       <c r="L15" t="n">
-        <v>206.6747101245328</v>
+        <v>206.6747101245329</v>
       </c>
       <c r="M15" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N15" t="n">
-        <v>253.1893576614562</v>
+        <v>253.1893576614563</v>
       </c>
       <c r="O15" t="n">
         <v>227.9716090983483</v>
@@ -35749,7 +35749,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R15" t="n">
-        <v>41.86411250262429</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.92866108825868</v>
+        <v>41.92866108825869</v>
       </c>
       <c r="K16" t="n">
-        <v>81.849545133531</v>
+        <v>81.84954513353101</v>
       </c>
       <c r="L16" t="n">
         <v>489.8388194919288</v>
       </c>
       <c r="M16" t="n">
-        <v>116.1432802544913</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N16" t="n">
-        <v>434.4801274900898</v>
+        <v>336.5887622437649</v>
       </c>
       <c r="O16" t="n">
         <v>484.1008763647911</v>
       </c>
       <c r="P16" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.48228327503386</v>
+        <v>49.48228327503388</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381821</v>
       </c>
       <c r="J17" t="n">
-        <v>138.0212613290049</v>
+        <v>138.021261329005</v>
       </c>
       <c r="K17" t="n">
-        <v>215.1863845474677</v>
+        <v>215.1863845474678</v>
       </c>
       <c r="L17" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M17" t="n">
-        <v>308.9798861821172</v>
+        <v>308.9798861821174</v>
       </c>
       <c r="N17" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009489</v>
       </c>
       <c r="O17" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P17" t="n">
-        <v>246.1196187304455</v>
+        <v>246.1196187304456</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140911</v>
       </c>
       <c r="R17" t="n">
-        <v>88.8929406086817</v>
+        <v>88.89294060868173</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.17020299213281</v>
+        <v>20.17020299213282</v>
       </c>
       <c r="J18" t="n">
-        <v>79.11572969663902</v>
+        <v>79.11572969663904</v>
       </c>
       <c r="K18" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L18" t="n">
-        <v>484.5569513644205</v>
+        <v>206.6747101245329</v>
       </c>
       <c r="M18" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N18" t="n">
-        <v>253.1893576614562</v>
+        <v>253.1893576614563</v>
       </c>
       <c r="O18" t="n">
         <v>227.9716090983483</v>
@@ -35983,10 +35983,10 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.9936918836372</v>
+        <v>389.8759331235245</v>
       </c>
       <c r="R18" t="n">
-        <v>41.86411250262429</v>
+        <v>41.86411250262431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.92866108825868</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K19" t="n">
-        <v>226.8930961539887</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L19" t="n">
         <v>109.6480178846915</v>
       </c>
       <c r="M19" t="n">
-        <v>116.1432802544913</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N19" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O19" t="n">
-        <v>484.1008763647911</v>
+        <v>202.7638441972645</v>
       </c>
       <c r="P19" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988337</v>
       </c>
       <c r="Q19" t="n">
         <v>202.3848058789723</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.17020299213281</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J21" t="n">
-        <v>79.11572969663902</v>
+        <v>226.7830152503472</v>
       </c>
       <c r="K21" t="n">
         <v>148.0498268719028</v>
@@ -36208,7 +36208,7 @@
         <v>206.6747101245329</v>
       </c>
       <c r="M21" t="n">
-        <v>522.239143454058</v>
+        <v>244.3569022141704</v>
       </c>
       <c r="N21" t="n">
         <v>253.1893576614563</v>
@@ -36223,7 +36223,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R21" t="n">
-        <v>41.86411250262429</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>41.92866108825869</v>
       </c>
       <c r="K22" t="n">
-        <v>81.84954513353101</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L22" t="n">
         <v>489.8388194919288</v>
       </c>
       <c r="M22" t="n">
-        <v>529.9500036556723</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N22" t="n">
-        <v>249.2883807811353</v>
+        <v>114.6713980568902</v>
       </c>
       <c r="O22" t="n">
-        <v>102.5833770686262</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P22" t="n">
         <v>400.5643001647395</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.3848058789723</v>
+        <v>119.5105994617463</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J23" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K23" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L23" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M23" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N23" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O23" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P23" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R23" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J24" t="n">
-        <v>79.11572969663904</v>
+        <v>226.7830152503472</v>
       </c>
       <c r="K24" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L24" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M24" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N24" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O24" t="n">
         <v>227.9716090983483</v>
@@ -36457,10 +36457,10 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.8759331235245</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R24" t="n">
-        <v>41.86411250262431</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.92866108825869</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K25" t="n">
         <v>331.6299583800179</v>
       </c>
       <c r="L25" t="n">
-        <v>109.6480178846915</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M25" t="n">
-        <v>116.1432802544914</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N25" t="n">
-        <v>516.7248554729308</v>
+        <v>114.6713980568902</v>
       </c>
       <c r="O25" t="n">
-        <v>379.3640141387625</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P25" t="n">
-        <v>400.5643001647396</v>
+        <v>238.981289052341</v>
       </c>
       <c r="Q25" t="n">
         <v>202.3848058789723</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J26" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K26" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L26" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M26" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N26" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O26" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P26" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R26" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J27" t="n">
-        <v>79.11572969663904</v>
+        <v>226.7830152503472</v>
       </c>
       <c r="K27" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L27" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M27" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N27" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O27" t="n">
         <v>227.9716090983483</v>
       </c>
       <c r="P27" t="n">
-        <v>457.6761990405336</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q27" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R27" t="n">
-        <v>41.86411250262431</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.6374657834313</v>
+        <v>90.40754455131916</v>
       </c>
       <c r="K28" t="n">
-        <v>268.7975899577394</v>
+        <v>81.849545133531</v>
       </c>
       <c r="L28" t="n">
-        <v>109.6480178846915</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M28" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N28" t="n">
         <v>516.7248554729308</v>
@@ -36770,10 +36770,10 @@
         <v>102.5833770686262</v>
       </c>
       <c r="P28" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.48228327503389</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J29" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K29" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L29" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M29" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N29" t="n">
-        <v>314.7368208009494</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O29" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P29" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R29" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J30" t="n">
-        <v>79.11572969663904</v>
+        <v>226.7830152503472</v>
       </c>
       <c r="K30" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L30" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M30" t="n">
-        <v>522.2391434540579</v>
+        <v>244.3569022141704</v>
       </c>
       <c r="N30" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O30" t="n">
         <v>227.9716090983483</v>
@@ -36934,7 +36934,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R30" t="n">
-        <v>41.86411250262431</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.92866108825869</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K31" t="n">
-        <v>228.219793842917</v>
+        <v>81.849545133531</v>
       </c>
       <c r="L31" t="n">
-        <v>489.8388194919289</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M31" t="n">
-        <v>116.1432802544914</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N31" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O31" t="n">
-        <v>102.5833770686262</v>
+        <v>303.9647831356254</v>
       </c>
       <c r="P31" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J32" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K32" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L32" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M32" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N32" t="n">
-        <v>314.7368208009494</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O32" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P32" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R32" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.17020299213282</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J33" t="n">
-        <v>79.11572969663904</v>
+        <v>356.9979709365267</v>
       </c>
       <c r="K33" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L33" t="n">
-        <v>207.796305370204</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M33" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N33" t="n">
-        <v>529.9500036556725</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O33" t="n">
         <v>227.9716090983483</v>
@@ -37171,7 +37171,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R33" t="n">
-        <v>41.86411250262431</v>
+        <v>41.86411250262429</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.92866108825869</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8930961539894</v>
+        <v>81.849545133531</v>
       </c>
       <c r="L34" t="n">
-        <v>109.6480178846915</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M34" t="n">
-        <v>116.1432802544914</v>
+        <v>529.9500036556722</v>
       </c>
       <c r="N34" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O34" t="n">
-        <v>484.1008763647911</v>
+        <v>102.5833770686262</v>
       </c>
       <c r="P34" t="n">
-        <v>400.5643001647396</v>
+        <v>133.1278254729435</v>
       </c>
       <c r="Q34" t="n">
         <v>202.3848058789723</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J35" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K35" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L35" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M35" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N35" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O35" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P35" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R35" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.17020299213282</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J36" t="n">
-        <v>79.11572969663904</v>
+        <v>79.11572969663902</v>
       </c>
       <c r="K36" t="n">
-        <v>148.0498268719028</v>
+        <v>425.9320681117904</v>
       </c>
       <c r="L36" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M36" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N36" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O36" t="n">
         <v>227.9716090983483</v>
@@ -37405,10 +37405,10 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q36" t="n">
-        <v>389.8759331235245</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R36" t="n">
-        <v>41.86411250262431</v>
+        <v>41.86411250262429</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.6374657834313</v>
+        <v>90.40754455131916</v>
       </c>
       <c r="K37" t="n">
-        <v>81.84954513353101</v>
+        <v>81.849545133531</v>
       </c>
       <c r="L37" t="n">
-        <v>328.8852868139158</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M37" t="n">
-        <v>116.1432802544914</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N37" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O37" t="n">
-        <v>484.1008763647911</v>
+        <v>102.5833770686262</v>
       </c>
       <c r="P37" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.48228327503389</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J38" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K38" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L38" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M38" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N38" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O38" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P38" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R38" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.17020299213282</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J39" t="n">
-        <v>79.11572969663904</v>
+        <v>356.9979709365267</v>
       </c>
       <c r="K39" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L39" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M39" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N39" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O39" t="n">
-        <v>505.8538503382358</v>
+        <v>227.9716090983483</v>
       </c>
       <c r="P39" t="n">
         <v>179.7939578006463</v>
@@ -37645,7 +37645,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R39" t="n">
-        <v>41.86411250262431</v>
+        <v>41.86411250262429</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K40" t="n">
-        <v>290.6602457665424</v>
+        <v>81.849545133531</v>
       </c>
       <c r="L40" t="n">
-        <v>489.8388194919289</v>
+        <v>375.3048674040718</v>
       </c>
       <c r="M40" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N40" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O40" t="n">
         <v>102.5833770686262</v>
       </c>
       <c r="P40" t="n">
-        <v>400.5643001647396</v>
+        <v>400.5643001647395</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.48228327503389</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.50950820381823</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J41" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K41" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L41" t="n">
-        <v>273.0148454885382</v>
+        <v>273.0148454885381</v>
       </c>
       <c r="M41" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N41" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O41" t="n">
-        <v>295.0081863577508</v>
+        <v>295.0081863577507</v>
       </c>
       <c r="P41" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R41" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J42" t="n">
-        <v>79.11572969663905</v>
+        <v>226.7830152503472</v>
       </c>
       <c r="K42" t="n">
-        <v>148.0498268719029</v>
+        <v>148.0498268719028</v>
       </c>
       <c r="L42" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M42" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N42" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O42" t="n">
-        <v>227.9716090983484</v>
+        <v>227.9716090983483</v>
       </c>
       <c r="P42" t="n">
-        <v>179.7939578006464</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q42" t="n">
-        <v>389.8759331235245</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R42" t="n">
-        <v>41.86411250262431</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>120.6374657834313</v>
       </c>
       <c r="K43" t="n">
-        <v>331.629958380018</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L43" t="n">
-        <v>489.8388194919289</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M43" t="n">
-        <v>529.9500036556725</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N43" t="n">
-        <v>114.6713980568903</v>
+        <v>114.6713980568902</v>
       </c>
       <c r="O43" t="n">
-        <v>224.6265000060682</v>
+        <v>322.5178652523928</v>
       </c>
       <c r="P43" t="n">
-        <v>84.64894200988338</v>
+        <v>400.5643001647395</v>
       </c>
       <c r="Q43" t="n">
         <v>202.3848058789723</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.50950820381823</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J44" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K44" t="n">
-        <v>215.1863845474683</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L44" t="n">
-        <v>273.0148454885382</v>
+        <v>273.0148454885381</v>
       </c>
       <c r="M44" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N44" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O44" t="n">
-        <v>295.0081863577508</v>
+        <v>295.0081863577507</v>
       </c>
       <c r="P44" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R44" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.17020299213282</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J45" t="n">
-        <v>250.4772635780357</v>
+        <v>356.9979709365267</v>
       </c>
       <c r="K45" t="n">
-        <v>148.0498268719029</v>
+        <v>148.0498268719028</v>
       </c>
       <c r="L45" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M45" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N45" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O45" t="n">
-        <v>227.9716090983484</v>
+        <v>227.9716090983483</v>
       </c>
       <c r="P45" t="n">
-        <v>179.7939578006464</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.9936918836373</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R45" t="n">
-        <v>148.384819861115</v>
+        <v>41.86411250262429</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.92866108825871</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K46" t="n">
-        <v>215.1398301688488</v>
+        <v>81.849545133531</v>
       </c>
       <c r="L46" t="n">
-        <v>109.6480178846915</v>
+        <v>309.702726262763</v>
       </c>
       <c r="M46" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N46" t="n">
-        <v>114.6713980568903</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O46" t="n">
         <v>484.1008763647911</v>
       </c>
       <c r="P46" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
